--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gdnf</t>
+  </si>
+  <si>
+    <t>Gfra2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdnf</t>
-  </si>
-  <si>
-    <t>Gfra2</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H2">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I2">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J2">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4655053333333334</v>
+        <v>0.124539</v>
       </c>
       <c r="N2">
-        <v>1.396516</v>
+        <v>0.373617</v>
       </c>
       <c r="O2">
-        <v>0.04241156985302928</v>
+        <v>0.03987283322062691</v>
       </c>
       <c r="P2">
-        <v>0.05636769901858361</v>
+        <v>0.0441211481368638</v>
       </c>
       <c r="Q2">
-        <v>0.1005354971768889</v>
+        <v>0.033138042841</v>
       </c>
       <c r="R2">
-        <v>0.9048194745920001</v>
+        <v>0.298242385569</v>
       </c>
       <c r="S2">
-        <v>0.002448726306621657</v>
+        <v>0.003285609791248138</v>
       </c>
       <c r="T2">
-        <v>0.004586251734573102</v>
+        <v>0.005237720636028616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H3">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I3">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J3">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.684599</v>
       </c>
       <c r="O3">
-        <v>0.172638743541041</v>
+        <v>0.606666901808918</v>
       </c>
       <c r="P3">
-        <v>0.2294479730080725</v>
+        <v>0.6713051991147829</v>
       </c>
       <c r="Q3">
-        <v>0.4092355452542223</v>
+        <v>0.5041967715492223</v>
       </c>
       <c r="R3">
-        <v>3.683119907288</v>
+        <v>4.537770943943</v>
       </c>
       <c r="S3">
-        <v>0.009967681798056856</v>
+        <v>0.0499906967127282</v>
       </c>
       <c r="T3">
-        <v>0.01866860245360778</v>
+        <v>0.07969214861702661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H4">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I4">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J4">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2995026666666666</v>
+        <v>0.09661166666666667</v>
       </c>
       <c r="N4">
-        <v>0.898508</v>
+        <v>0.289835</v>
       </c>
       <c r="O4">
-        <v>0.02728728837013369</v>
+        <v>0.03093152243206385</v>
       </c>
       <c r="P4">
-        <v>0.03626655799846871</v>
+        <v>0.03422717106086694</v>
       </c>
       <c r="Q4">
-        <v>0.06468379058844444</v>
+        <v>0.02570697973277778</v>
       </c>
       <c r="R4">
-        <v>0.582154115296</v>
+        <v>0.231362817595</v>
       </c>
       <c r="S4">
-        <v>0.001575492279580049</v>
+        <v>0.002548825973781717</v>
       </c>
       <c r="T4">
-        <v>0.002950760230121108</v>
+        <v>0.00406318438546253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H5">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I5">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J5">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.152602</v>
+        <v>0.9022345000000001</v>
       </c>
       <c r="N5">
-        <v>16.305204</v>
+        <v>1.804469</v>
       </c>
       <c r="O5">
-        <v>0.742772691197837</v>
+        <v>0.2888624908213147</v>
       </c>
       <c r="P5">
-        <v>0.6581283934509921</v>
+        <v>0.2130932052272207</v>
       </c>
       <c r="Q5">
-        <v>1.760722889008</v>
+        <v>0.2400716684221667</v>
       </c>
       <c r="R5">
-        <v>10.564337334048</v>
+        <v>1.440430010533</v>
       </c>
       <c r="S5">
-        <v>0.04288563321469214</v>
+        <v>0.02380290918669548</v>
       </c>
       <c r="T5">
-        <v>0.05354737799464401</v>
+        <v>0.02529677321528175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H6">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I6">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J6">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.163428</v>
+        <v>0.1051533333333333</v>
       </c>
       <c r="N6">
-        <v>0.490284</v>
+        <v>0.31546</v>
       </c>
       <c r="O6">
-        <v>0.01488970703795918</v>
+        <v>0.03366625171707648</v>
       </c>
       <c r="P6">
-        <v>0.01978937652388318</v>
+        <v>0.03725327646026561</v>
       </c>
       <c r="Q6">
-        <v>0.035295654112</v>
+        <v>0.02797979480222222</v>
       </c>
       <c r="R6">
-        <v>0.317660887008</v>
+        <v>0.25181815322</v>
       </c>
       <c r="S6">
-        <v>0.0008596903497816656</v>
+        <v>0.002774173725358154</v>
       </c>
       <c r="T6">
-        <v>0.001610125373023609</v>
+        <v>0.004422420157117014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.9630225</v>
+      </c>
+      <c r="H7">
+        <v>5.926045</v>
+      </c>
+      <c r="I7">
+        <v>0.9175977846101883</v>
+      </c>
+      <c r="J7">
+        <v>0.8812877529890836</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.2660856666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.798257</v>
-      </c>
-      <c r="I7">
-        <v>0.071134881245668</v>
-      </c>
-      <c r="J7">
-        <v>0.1002430550977212</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.4655053333333334</v>
+        <v>0.124539</v>
       </c>
       <c r="N7">
-        <v>1.396516</v>
+        <v>0.373617</v>
       </c>
       <c r="O7">
-        <v>0.04241156985302928</v>
+        <v>0.03987283322062691</v>
       </c>
       <c r="P7">
-        <v>0.05636769901858361</v>
+        <v>0.0441211481368638</v>
       </c>
       <c r="Q7">
-        <v>0.1238642969568889</v>
+        <v>0.3690118591275</v>
       </c>
       <c r="R7">
-        <v>1.114778672612</v>
+        <v>2.214071154765</v>
       </c>
       <c r="S7">
-        <v>0.00301694198493759</v>
+        <v>0.03658722342937877</v>
       </c>
       <c r="T7">
-        <v>0.005650470358451643</v>
+        <v>0.03888342750083519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H8">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I8">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J8">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.684599</v>
       </c>
       <c r="O8">
-        <v>0.172638743541041</v>
+        <v>0.606666901808918</v>
       </c>
       <c r="P8">
-        <v>0.2294479730080725</v>
+        <v>0.6713051991147829</v>
       </c>
       <c r="Q8">
-        <v>0.5041967715492223</v>
+        <v>5.614531580159167</v>
       </c>
       <c r="R8">
-        <v>4.537770943943</v>
+        <v>33.68718948095501</v>
       </c>
       <c r="S8">
-        <v>0.01228063652019328</v>
+        <v>0.5566762050961898</v>
       </c>
       <c r="T8">
-        <v>0.02300056580030866</v>
+        <v>0.5916130504977564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.9630225</v>
+      </c>
+      <c r="H9">
+        <v>5.926045</v>
+      </c>
+      <c r="I9">
+        <v>0.9175977846101883</v>
+      </c>
+      <c r="J9">
+        <v>0.8812877529890836</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.2660856666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.798257</v>
-      </c>
-      <c r="I9">
-        <v>0.071134881245668</v>
-      </c>
-      <c r="J9">
-        <v>0.1002430550977212</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M9">
-        <v>0.2995026666666666</v>
+        <v>0.09661166666666667</v>
       </c>
       <c r="N9">
-        <v>0.898508</v>
+        <v>0.289835</v>
       </c>
       <c r="O9">
-        <v>0.02728728837013369</v>
+        <v>0.03093152243206385</v>
       </c>
       <c r="P9">
-        <v>0.03626655799846871</v>
+        <v>0.03422717106086694</v>
       </c>
       <c r="Q9">
-        <v>0.07969336672844443</v>
+        <v>0.2862625420958333</v>
       </c>
       <c r="R9">
-        <v>0.717240300556</v>
+        <v>1.717575252575</v>
       </c>
       <c r="S9">
-        <v>0.001941078017725757</v>
+        <v>0.02838269645828213</v>
       </c>
       <c r="T9">
-        <v>0.0036354705716452</v>
+        <v>0.03016398667540441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H10">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I10">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J10">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.152602</v>
+        <v>0.9022345000000001</v>
       </c>
       <c r="N10">
-        <v>16.305204</v>
+        <v>1.804469</v>
       </c>
       <c r="O10">
-        <v>0.742772691197837</v>
+        <v>0.2888624908213147</v>
       </c>
       <c r="P10">
-        <v>0.6581283934509921</v>
+        <v>0.2130932052272207</v>
       </c>
       <c r="Q10">
-        <v>2.169290538238</v>
+        <v>2.67334112377625</v>
       </c>
       <c r="R10">
-        <v>13.015743229428</v>
+        <v>10.693364495105</v>
       </c>
       <c r="S10">
-        <v>0.05283704718088336</v>
+        <v>0.2650595816346192</v>
       </c>
       <c r="T10">
-        <v>0.06597280080608253</v>
+        <v>0.1877964320119389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,371 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.9630225</v>
+      </c>
+      <c r="H11">
+        <v>5.926045</v>
+      </c>
+      <c r="I11">
+        <v>0.9175977846101883</v>
+      </c>
+      <c r="J11">
+        <v>0.8812877529890836</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.2660856666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.798257</v>
-      </c>
-      <c r="I11">
-        <v>0.071134881245668</v>
-      </c>
-      <c r="J11">
-        <v>0.1002430550977212</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M11">
-        <v>0.163428</v>
+        <v>0.1051533333333333</v>
       </c>
       <c r="N11">
-        <v>0.490284</v>
+        <v>0.31546</v>
       </c>
       <c r="O11">
-        <v>0.01488970703795918</v>
+        <v>0.03366625171707648</v>
       </c>
       <c r="P11">
-        <v>0.01978937652388318</v>
+        <v>0.03725327646026561</v>
       </c>
       <c r="Q11">
-        <v>0.043485848332</v>
+        <v>0.3115716926166667</v>
       </c>
       <c r="R11">
-        <v>0.391372634988</v>
+        <v>1.8694301557</v>
       </c>
       <c r="S11">
-        <v>0.001059177541928013</v>
+        <v>0.03089207799171833</v>
       </c>
       <c r="T11">
-        <v>0.001983747561233172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3.258523</v>
-      </c>
-      <c r="H12">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J12">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.4655053333333334</v>
-      </c>
-      <c r="N12">
-        <v>1.396516</v>
-      </c>
-      <c r="O12">
-        <v>0.04241156985302928</v>
-      </c>
-      <c r="P12">
-        <v>0.05636769901858361</v>
-      </c>
-      <c r="Q12">
-        <v>1.516859835289334</v>
-      </c>
-      <c r="R12">
-        <v>9.101159011736002</v>
-      </c>
-      <c r="S12">
-        <v>0.03694590156147003</v>
-      </c>
-      <c r="T12">
-        <v>0.04613097692555887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.258523</v>
-      </c>
-      <c r="H13">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J13">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.894866333333334</v>
-      </c>
-      <c r="N13">
-        <v>5.684599</v>
-      </c>
-      <c r="O13">
-        <v>0.172638743541041</v>
-      </c>
-      <c r="P13">
-        <v>0.2294479730080725</v>
-      </c>
-      <c r="Q13">
-        <v>6.174465529092335</v>
-      </c>
-      <c r="R13">
-        <v>37.046793174554</v>
-      </c>
-      <c r="S13">
-        <v>0.1503904252227908</v>
-      </c>
-      <c r="T13">
-        <v>0.1877788047541561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.258523</v>
-      </c>
-      <c r="H14">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J14">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.2995026666666666</v>
-      </c>
-      <c r="N14">
-        <v>0.898508</v>
-      </c>
-      <c r="O14">
-        <v>0.02728728837013369</v>
-      </c>
-      <c r="P14">
-        <v>0.03626655799846871</v>
-      </c>
-      <c r="Q14">
-        <v>0.9759363278946667</v>
-      </c>
-      <c r="R14">
-        <v>5.855617967368</v>
-      </c>
-      <c r="S14">
-        <v>0.02377071807282788</v>
-      </c>
-      <c r="T14">
-        <v>0.0296803271967024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.258523</v>
-      </c>
-      <c r="H15">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J15">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.152602</v>
-      </c>
-      <c r="N15">
-        <v>16.305204</v>
-      </c>
-      <c r="O15">
-        <v>0.742772691197837</v>
-      </c>
-      <c r="P15">
-        <v>0.6581283934509921</v>
-      </c>
-      <c r="Q15">
-        <v>26.565441126846</v>
-      </c>
-      <c r="R15">
-        <v>106.261764507384</v>
-      </c>
-      <c r="S15">
-        <v>0.6470500108022614</v>
-      </c>
-      <c r="T15">
-        <v>0.5386082146502654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.258523</v>
-      </c>
-      <c r="H16">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J16">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.163428</v>
-      </c>
-      <c r="N16">
-        <v>0.490284</v>
-      </c>
-      <c r="O16">
-        <v>0.01488970703795918</v>
-      </c>
-      <c r="P16">
-        <v>0.01978937652388318</v>
-      </c>
-      <c r="Q16">
-        <v>0.532533896844</v>
-      </c>
-      <c r="R16">
-        <v>3.195203381064</v>
-      </c>
-      <c r="S16">
-        <v>0.0129708391462495</v>
-      </c>
-      <c r="T16">
-        <v>0.0161955035896264</v>
+        <v>0.0328308563031486</v>
       </c>
     </row>
   </sheetData>
